--- a/Documents/WebAPI Service/金頂WCS、WMS Web Service API 20220211.xlsx
+++ b/Documents/WebAPI Service/金頂WCS、WMS Web Service API 20220211.xlsx
@@ -852,16 +852,7 @@
     <t>目標庫位（站口）</t>
   </si>
   <si>
-    <t>WhetherAllout</t>
-  </si>
-  <si>
     <t>是否整板出庫</t>
-  </si>
-  <si>
-    <t>銷售出庫目標站口是1樓時必需，0：非整板，1：整板</t>
-  </si>
-  <si>
-    <t>WCS依此確認是否2棧板堆疊出庫</t>
   </si>
   <si>
     <t>deliveryTime</t>
@@ -934,6 +925,18 @@
   </si>
   <si>
     <t>目標位置</t>
+  </si>
+  <si>
+    <t>WhetherAllout</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>WCS依此確認是否2棧板堆疊出庫</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷售出庫目標站口是1樓時必需，0：非整板，1：整板</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1362,6 +1365,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1392,35 +1425,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1456,24 +1477,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1835,16 +1838,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
@@ -1855,63 +1858,63 @@
       <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:8" ht="16.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="60"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8" ht="16.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="32" t="s">
         <v>11</v>
       </c>
@@ -1932,10 +1935,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="58" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="35" t="s">
@@ -1956,8 +1959,8 @@
       <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="140.4">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="35" t="s">
         <v>23</v>
       </c>
@@ -1978,8 +1981,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.6">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="35" t="s">
         <v>27</v>
       </c>
@@ -1998,10 +2001,10 @@
       <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8" ht="46.8">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="58" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="35" t="s">
@@ -2022,8 +2025,8 @@
       <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="15.6">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="35" t="s">
         <v>33</v>
       </c>
@@ -2042,8 +2045,8 @@
       <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="46.8">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="35" t="s">
         <v>27</v>
       </c>
@@ -2068,14 +2071,14 @@
       <c r="B15" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="1:8" ht="48.9" customHeight="1">
       <c r="A16" s="36" t="s">
@@ -2084,14 +2087,14 @@
       <c r="B16" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="55"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
@@ -2100,11 +2103,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="C7:H7"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="A7:A8"/>
@@ -2113,6 +2111,11 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
@@ -2140,16 +2143,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
@@ -2160,29 +2163,29 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2" t="s">
@@ -2202,35 +2205,35 @@
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:8" ht="16.2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:8" ht="16.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
@@ -2251,10 +2254,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.6">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="75" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -2275,8 +2278,8 @@
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="15.6">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="14" t="s">
         <v>47</v>
       </c>
@@ -2295,8 +2298,8 @@
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="15.6">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="14" t="s">
         <v>49</v>
       </c>
@@ -2317,8 +2320,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.6">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="14" t="s">
         <v>52</v>
       </c>
@@ -2337,10 +2340,10 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="31.2">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="75" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -2361,8 +2364,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="31.2">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="14" t="s">
         <v>33</v>
       </c>
@@ -2381,8 +2384,8 @@
       <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" ht="46.8">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="14" t="s">
         <v>27</v>
       </c>
@@ -2407,14 +2410,14 @@
       <c r="B17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="63"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
     </row>
     <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="19" t="s">
@@ -2423,14 +2426,14 @@
       <c r="B18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="72"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="29"/>
@@ -2444,11 +2447,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="C8:H8"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="A8:A9"/>
@@ -2457,6 +2455,11 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
@@ -2492,13 +2495,13 @@
       <c r="A1" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -2509,15 +2512,15 @@
       <c r="A4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="15.6">
       <c r="A5" s="2" t="s">
@@ -2526,12 +2529,12 @@
       <c r="B5" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:10" ht="15.6">
       <c r="A6" s="2" t="s">
@@ -2551,35 +2554,35 @@
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:10" ht="16.2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:10" ht="16.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="6" t="s">
         <v>71</v>
       </c>
@@ -2600,10 +2603,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="75" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -2624,8 +2627,8 @@
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="15.6">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="9" t="s">
         <v>79</v>
       </c>
@@ -2649,8 +2652,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="14" t="s">
         <v>19</v>
       </c>
@@ -2671,8 +2674,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="31.2">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="14" t="s">
         <v>23</v>
       </c>
@@ -2693,10 +2696,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="75" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -2715,8 +2718,8 @@
       <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="15.6">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="14" t="s">
         <v>33</v>
       </c>
@@ -2735,8 +2738,8 @@
       <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="39" customHeight="1">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="14" t="s">
         <v>27</v>
       </c>
@@ -2763,14 +2766,14 @@
       <c r="B17" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="63"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
     </row>
     <row r="18" spans="1:8" ht="51" customHeight="1">
       <c r="A18" s="19" t="s">
@@ -2779,14 +2782,14 @@
       <c r="B18" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="72"/>
     </row>
     <row r="20" spans="1:8">
       <c r="E20" s="1"/>
@@ -2796,11 +2799,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="C8:H8"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="A8:A9"/>
@@ -2809,6 +2807,11 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
@@ -2842,13 +2845,13 @@
       <c r="A1" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -2859,15 +2862,15 @@
       <c r="A4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="1:9" ht="15.6">
       <c r="A5" s="2" t="s">
@@ -2876,12 +2879,12 @@
       <c r="B5" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:9" ht="15.6">
       <c r="A6" s="2" t="s">
@@ -2901,35 +2904,35 @@
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:9" ht="16.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="6" t="s">
         <v>71</v>
       </c>
@@ -2950,10 +2953,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.6">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="75" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -2974,8 +2977,8 @@
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="15.6">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="14" t="s">
         <v>19</v>
       </c>
@@ -2996,8 +2999,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="14" t="s">
         <v>47</v>
       </c>
@@ -3016,8 +3019,8 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="148.05000000000001" customHeight="1">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="14" t="s">
         <v>100</v>
       </c>
@@ -3038,8 +3041,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="109.2">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="14" t="s">
         <v>23</v>
       </c>
@@ -3081,10 +3084,10 @@
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="31.2">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="75" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -3105,8 +3108,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="31.2">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="14" t="s">
         <v>33</v>
       </c>
@@ -3125,8 +3128,8 @@
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" ht="31.2">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="14" t="s">
         <v>27</v>
       </c>
@@ -3151,14 +3154,14 @@
       <c r="B19" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69"/>
     </row>
     <row r="20" spans="1:8" ht="32.25" customHeight="1">
       <c r="A20" s="19" t="s">
@@ -3167,22 +3170,17 @@
       <c r="B20" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="66"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="C8:H8"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="A8:A9"/>
@@ -3191,6 +3189,11 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
@@ -3228,13 +3231,13 @@
       <c r="A1" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -3245,15 +3248,15 @@
       <c r="A4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="15.6">
       <c r="A5" s="2" t="s">
@@ -3262,12 +3265,12 @@
       <c r="B5" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:10" ht="15.6">
       <c r="A6" s="2" t="s">
@@ -3287,35 +3290,35 @@
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:10" ht="16.2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:10" ht="16.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="6" t="s">
         <v>71</v>
       </c>
@@ -3336,10 +3339,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="75" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -3362,8 +3365,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="14" t="s">
         <v>19</v>
       </c>
@@ -3384,8 +3387,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="14" t="s">
         <v>47</v>
       </c>
@@ -3406,8 +3409,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="140.4">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="14" t="s">
         <v>100</v>
       </c>
@@ -3428,8 +3431,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="14" t="s">
         <v>115</v>
       </c>
@@ -3448,8 +3451,8 @@
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:10" ht="15.6">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="14" t="s">
         <v>52</v>
       </c>
@@ -3471,7 +3474,7 @@
       <c r="A16" s="82"/>
       <c r="B16" s="82"/>
       <c r="C16" s="23" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>20</v>
@@ -3483,20 +3486,20 @@
         <v>28</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="81"/>
       <c r="B17" s="81"/>
       <c r="C17" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>20</v>
@@ -3508,15 +3511,15 @@
         <v>21</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" ht="15.6">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="75" t="s">
         <v>76</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -3537,8 +3540,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.6">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
       <c r="C19" s="14" t="s">
         <v>33</v>
       </c>
@@ -3557,8 +3560,8 @@
       <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" ht="37.950000000000003" customHeight="1">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="14" t="s">
         <v>27</v>
       </c>
@@ -3583,14 +3586,14 @@
       <c r="B21" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
+      <c r="C21" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="69"/>
     </row>
     <row r="22" spans="1:8" ht="51" customHeight="1">
       <c r="A22" s="19" t="s">
@@ -3599,14 +3602,14 @@
       <c r="B22" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="66"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="72"/>
     </row>
     <row r="24" spans="1:8">
       <c r="E24" s="1"/>
@@ -3616,11 +3619,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="C8:H8"/>
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="A8:A9"/>
@@ -3629,6 +3627,11 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B17"/>
     <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
@@ -3665,13 +3668,13 @@
       <c r="A1" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -3682,29 +3685,29 @@
       <c r="A4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74"/>
+        <v>122</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2" t="s">
@@ -3724,35 +3727,35 @@
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:8" ht="16.2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:8" ht="16.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="6" t="s">
         <v>71</v>
       </c>
@@ -3773,10 +3776,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.6">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="75" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -3815,14 +3818,14 @@
         <v>83</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="75" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -3841,8 +3844,8 @@
       <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="15.6">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="14" t="s">
         <v>33</v>
       </c>
@@ -3861,8 +3864,8 @@
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="14" t="s">
         <v>27</v>
       </c>
@@ -3887,14 +3890,14 @@
       <c r="B15" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
     </row>
     <row r="16" spans="1:8" ht="51" customHeight="1">
       <c r="A16" s="19" t="s">
@@ -3903,14 +3906,14 @@
       <c r="B16" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="72"/>
     </row>
     <row r="18" spans="3:5">
       <c r="E18" s="1"/>
@@ -3920,11 +3923,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="C8:H8"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="A8:A9"/>
@@ -3933,6 +3931,11 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
@@ -3968,13 +3971,13 @@
       <c r="A1" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -3985,29 +3988,29 @@
       <c r="A4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="73" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
+      <c r="B4" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74"/>
+        <v>125</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2" t="s">
@@ -4027,35 +4030,35 @@
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:8" ht="16.2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:8" ht="16.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="6" t="s">
         <v>71</v>
       </c>
@@ -4076,10 +4079,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.6">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="75" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -4100,8 +4103,8 @@
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="15.6">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="14" t="s">
         <v>115</v>
       </c>
@@ -4115,17 +4118,17 @@
         <v>21</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="75" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -4144,8 +4147,8 @@
       <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="15.6">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="14" t="s">
         <v>33</v>
       </c>
@@ -4164,8 +4167,8 @@
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="14" t="s">
         <v>27</v>
       </c>
@@ -4190,14 +4193,14 @@
       <c r="B15" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
     </row>
     <row r="16" spans="1:8" ht="51" customHeight="1">
       <c r="A16" s="19" t="s">
@@ -4206,14 +4209,14 @@
       <c r="B16" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="72"/>
     </row>
     <row r="18" spans="3:5">
       <c r="E18" s="1"/>
@@ -4223,11 +4226,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="C8:H8"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="A8:A9"/>
@@ -4236,6 +4234,11 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
@@ -4271,13 +4274,13 @@
       <c r="A1" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -4288,29 +4291,29 @@
       <c r="A4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
+      <c r="B4" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74"/>
+        <v>129</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2" t="s">
@@ -4330,35 +4333,35 @@
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:8" ht="16.2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:8" ht="16.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="6" t="s">
         <v>71</v>
       </c>
@@ -4379,10 +4382,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.6">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="75" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -4403,8 +4406,8 @@
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="15.6">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="14" t="s">
         <v>52</v>
       </c>
@@ -4418,17 +4421,17 @@
         <v>21</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="75" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -4447,8 +4450,8 @@
       <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="15.6">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="14" t="s">
         <v>33</v>
       </c>
@@ -4467,8 +4470,8 @@
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="14" t="s">
         <v>27</v>
       </c>
@@ -4493,14 +4496,14 @@
       <c r="B15" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
     </row>
     <row r="16" spans="1:8" ht="51" customHeight="1">
       <c r="A16" s="19" t="s">
@@ -4509,14 +4512,14 @@
       <c r="B16" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="72"/>
     </row>
     <row r="18" spans="3:5">
       <c r="E18" s="1"/>
@@ -4526,11 +4529,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="C8:H8"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="A8:A9"/>
@@ -4539,6 +4537,11 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
